--- a/m1/unidad3/Practicas/20191030/concatenar.xlsx
+++ b/m1/unidad3/Practicas/20191030/concatenar.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Documents\POO\m1\unidad3\Practicas\20191030\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="15240" windowHeight="7770"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="grupos">'Grupo profesional'!$B$4:$C$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -260,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,6 +328,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -331,16 +339,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3028950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -349,8 +357,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8086725" y="1647825"/>
-          <a:ext cx="2905125" cy="1781175"/>
+          <a:off x="15116176" y="219076"/>
+          <a:ext cx="2514600" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -443,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,7 +486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,10 +698,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +715,7 @@
     <col min="8" max="8" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11949380</v>
       </c>
@@ -746,8 +754,12 @@
       <c r="F2" s="1">
         <v>93812</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B2)," con DNI ",A2," y con el grupo profesional ",VLOOKUP(E2,grupos,2,FALSE)," percibo un salario de ",Datos!F2," pesetas.")</f>
+        <v>Yo, Maria Carmen con DNI 11949380 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13145230</v>
       </c>
@@ -766,8 +778,12 @@
       <c r="F3" s="1">
         <v>113341</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B3)," con DNI ",A3," y con el grupo profesional ",VLOOKUP(E3,grupos,2,FALSE)," percibo un salario de ",Datos!F3," pesetas.")</f>
+        <v>Yo, Isabel con DNI 13145230 y con el grupo profesional Oficial percibo un salario de 113341 pesetas.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16791859</v>
       </c>
@@ -786,8 +802,12 @@
       <c r="F4" s="1">
         <v>96755</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B4)," con DNI ",A4," y con el grupo profesional ",VLOOKUP(E4,grupos,2,FALSE)," percibo un salario de ",Datos!F4," pesetas.")</f>
+        <v>Yo, Alberto con DNI 16791859 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18877501</v>
       </c>
@@ -806,8 +826,12 @@
       <c r="F5" s="1">
         <v>177712</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B5)," con DNI ",A5," y con el grupo profesional ",VLOOKUP(E5,grupos,2,FALSE)," percibo un salario de ",Datos!F5," pesetas.")</f>
+        <v>Yo, Francesc Marc con DNI 18877501 y con el grupo profesional Titulado Superior percibo un salario de 177712 pesetas.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18889898</v>
       </c>
@@ -826,8 +850,12 @@
       <c r="F6" s="1">
         <v>106568</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B6)," con DNI ",A6," y con el grupo profesional ",VLOOKUP(E6,grupos,2,FALSE)," percibo un salario de ",Datos!F6," pesetas.")</f>
+        <v>Yo, Maria Teresa con DNI 18889898 y con el grupo profesional Técnico percibo un salario de 106568 pesetas.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18891170</v>
       </c>
@@ -846,8 +874,12 @@
       <c r="F7" s="1">
         <v>113341</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B7)," con DNI ",A7," y con el grupo profesional ",VLOOKUP(E7,grupos,2,FALSE)," percibo un salario de ",Datos!F7," pesetas.")</f>
+        <v>Yo, Dolores con DNI 18891170 y con el grupo profesional Oficial percibo un salario de 113341 pesetas.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18911363</v>
       </c>
@@ -866,8 +898,12 @@
       <c r="F8" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B8)," con DNI ",A8," y con el grupo profesional ",VLOOKUP(E8,grupos,2,FALSE)," percibo un salario de ",Datos!F8," pesetas.")</f>
+        <v>Yo, Pilar con DNI 18911363 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18920201</v>
       </c>
@@ -886,8 +922,12 @@
       <c r="F9" s="1">
         <v>134199</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B9)," con DNI ",A9," y con el grupo profesional ",VLOOKUP(E9,grupos,2,FALSE)," percibo un salario de ",Datos!F9," pesetas.")</f>
+        <v>Yo, Victoria Eugenia con DNI 18920201 y con el grupo profesional Jefe de Sección percibo un salario de 134199 pesetas.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18927181</v>
       </c>
@@ -906,8 +946,12 @@
       <c r="F10" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B10)," con DNI ",A10," y con el grupo profesional ",VLOOKUP(E10,grupos,2,FALSE)," percibo un salario de ",Datos!F10," pesetas.")</f>
+        <v>Yo, Carlos Rafael con DNI 18927181 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18935228</v>
       </c>
@@ -926,8 +970,12 @@
       <c r="F11" s="1">
         <v>119423</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B11)," con DNI ",A11," y con el grupo profesional ",VLOOKUP(E11,grupos,2,FALSE)," percibo un salario de ",Datos!F11," pesetas.")</f>
+        <v>Yo, Vicent Joan con DNI 18935228 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18952168</v>
       </c>
@@ -946,8 +994,12 @@
       <c r="F12" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B12)," con DNI ",A12," y con el grupo profesional ",VLOOKUP(E12,grupos,2,FALSE)," percibo un salario de ",Datos!F12," pesetas.")</f>
+        <v>Yo, Tomas con DNI 18952168 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18953436</v>
       </c>
@@ -966,8 +1018,12 @@
       <c r="F13" s="1">
         <v>119423</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B13)," con DNI ",A13," y con el grupo profesional ",VLOOKUP(E13,grupos,2,FALSE)," percibo un salario de ",Datos!F13," pesetas.")</f>
+        <v>Yo, Begoña con DNI 18953436 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18955034</v>
       </c>
@@ -986,8 +1042,12 @@
       <c r="F14" s="1">
         <v>138006</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B14)," con DNI ",A14," y con el grupo profesional ",VLOOKUP(E14,grupos,2,FALSE)," percibo un salario de ",Datos!F14," pesetas.")</f>
+        <v>Yo, Angeles con DNI 18955034 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18957801</v>
       </c>
@@ -1006,8 +1066,12 @@
       <c r="F15" s="1">
         <v>138006</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B15)," con DNI ",A15," y con el grupo profesional ",VLOOKUP(E15,grupos,2,FALSE)," percibo un salario de ",Datos!F15," pesetas.")</f>
+        <v>Yo, Margarita con DNI 18957801 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18960442</v>
       </c>
@@ -1026,8 +1090,12 @@
       <c r="F16" s="1">
         <v>138006</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B16)," con DNI ",A16," y con el grupo profesional ",VLOOKUP(E16,grupos,2,FALSE)," percibo un salario de ",Datos!F16," pesetas.")</f>
+        <v>Yo, Juan Carlos con DNI 18960442 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18964705</v>
       </c>
@@ -1046,8 +1114,12 @@
       <c r="F17" s="1">
         <v>119423</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B17)," con DNI ",A17," y con el grupo profesional ",VLOOKUP(E17,grupos,2,FALSE)," percibo un salario de ",Datos!F17," pesetas.")</f>
+        <v>Yo, Juan Carlos con DNI 18964705 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18965399</v>
       </c>
@@ -1066,8 +1138,12 @@
       <c r="F18" s="1">
         <v>134199</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B18)," con DNI ",A18," y con el grupo profesional ",VLOOKUP(E18,grupos,2,FALSE)," percibo un salario de ",Datos!F18," pesetas.")</f>
+        <v>Yo, Maria Carmen con DNI 18965399 y con el grupo profesional Jefe de Sección percibo un salario de 134199 pesetas.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18968771</v>
       </c>
@@ -1086,8 +1162,12 @@
       <c r="F19" s="1">
         <v>119423</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B19)," con DNI ",A19," y con el grupo profesional ",VLOOKUP(E19,grupos,2,FALSE)," percibo un salario de ",Datos!F19," pesetas.")</f>
+        <v>Yo, Joaquin con DNI 18968771 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18974688</v>
       </c>
@@ -1106,8 +1186,12 @@
       <c r="F20" s="1">
         <v>119423</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B20)," con DNI ",A20," y con el grupo profesional ",VLOOKUP(E20,grupos,2,FALSE)," percibo un salario de ",Datos!F20," pesetas.")</f>
+        <v>Yo, Alberto con DNI 18974688 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18974843</v>
       </c>
@@ -1126,8 +1210,12 @@
       <c r="F21" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B21)," con DNI ",A21," y con el grupo profesional ",VLOOKUP(E21,grupos,2,FALSE)," percibo un salario de ",Datos!F21," pesetas.")</f>
+        <v>Yo, Miguel Angel con DNI 18974843 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18975385</v>
       </c>
@@ -1146,8 +1234,12 @@
       <c r="F22" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B22)," con DNI ",A22," y con el grupo profesional ",VLOOKUP(E22,grupos,2,FALSE)," percibo un salario de ",Datos!F22," pesetas.")</f>
+        <v>Yo, Pablo con DNI 18975385 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18981702</v>
       </c>
@@ -1166,8 +1258,12 @@
       <c r="F23" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B23)," con DNI ",A23," y con el grupo profesional ",VLOOKUP(E23,grupos,2,FALSE)," percibo un salario de ",Datos!F23," pesetas.")</f>
+        <v>Yo, Jesus con DNI 18981702 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18983354</v>
       </c>
@@ -1186,8 +1282,12 @@
       <c r="F24" s="1">
         <v>138006</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B24)," con DNI ",A24," y con el grupo profesional ",VLOOKUP(E24,grupos,2,FALSE)," percibo un salario de ",Datos!F24," pesetas.")</f>
+        <v>Yo, Luis Miguel con DNI 18983354 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18986541</v>
       </c>
@@ -1206,8 +1306,12 @@
       <c r="F25" s="1">
         <v>106568</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B25)," con DNI ",A25," y con el grupo profesional ",VLOOKUP(E25,grupos,2,FALSE)," percibo un salario de ",Datos!F25," pesetas.")</f>
+        <v>Yo, David con DNI 18986541 y con el grupo profesional Técnico percibo un salario de 106568 pesetas.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18988863</v>
       </c>
@@ -1226,8 +1330,12 @@
       <c r="F26" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B26)," con DNI ",A26," y con el grupo profesional ",VLOOKUP(E26,grupos,2,FALSE)," percibo un salario de ",Datos!F26," pesetas.")</f>
+        <v>Yo, Gema con DNI 18988863 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18989477</v>
       </c>
@@ -1246,8 +1354,12 @@
       <c r="F27" s="1">
         <v>148294</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B27)," con DNI ",A27," y con el grupo profesional ",VLOOKUP(E27,grupos,2,FALSE)," percibo un salario de ",Datos!F27," pesetas.")</f>
+        <v>Yo, Jorge con DNI 18989477 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18989550</v>
       </c>
@@ -1266,8 +1378,12 @@
       <c r="F28" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B28)," con DNI ",A28," y con el grupo profesional ",VLOOKUP(E28,grupos,2,FALSE)," percibo un salario de ",Datos!F28," pesetas.")</f>
+        <v>Yo, Jorge con DNI 18989550 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19000111</v>
       </c>
@@ -1286,8 +1402,12 @@
       <c r="F29" s="1">
         <v>106568</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B29)," con DNI ",A29," y con el grupo profesional ",VLOOKUP(E29,grupos,2,FALSE)," percibo un salario de ",Datos!F29," pesetas.")</f>
+        <v>Yo, Sebastian con DNI 19000111 y con el grupo profesional Técnico percibo un salario de 106568 pesetas.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19008434</v>
       </c>
@@ -1306,8 +1426,12 @@
       <c r="F30" s="1">
         <v>138006</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B30)," con DNI ",A30," y con el grupo profesional ",VLOOKUP(E30,grupos,2,FALSE)," percibo un salario de ",Datos!F30," pesetas.")</f>
+        <v>Yo, Alejandra con DNI 19008434 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19011755</v>
       </c>
@@ -1326,8 +1450,12 @@
       <c r="F31" s="1">
         <v>93812</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B31)," con DNI ",A31," y con el grupo profesional ",VLOOKUP(E31,grupos,2,FALSE)," percibo un salario de ",Datos!F31," pesetas.")</f>
+        <v>Yo, Julia con DNI 19011755 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19012844</v>
       </c>
@@ -1346,8 +1474,12 @@
       <c r="F32" s="1">
         <v>157967</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B32)," con DNI ",A32," y con el grupo profesional ",VLOOKUP(E32,grupos,2,FALSE)," percibo un salario de ",Datos!F32," pesetas.")</f>
+        <v>Yo, Oscar con DNI 19012844 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19082333</v>
       </c>
@@ -1366,8 +1498,12 @@
       <c r="F33" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B33)," con DNI ",A33," y con el grupo profesional ",VLOOKUP(E33,grupos,2,FALSE)," percibo un salario de ",Datos!F33," pesetas.")</f>
+        <v>Yo, Elias con DNI 19082333 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>19097407</v>
       </c>
@@ -1386,8 +1522,12 @@
       <c r="F34" s="1">
         <v>93812</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B34)," con DNI ",A34," y con el grupo profesional ",VLOOKUP(E34,grupos,2,FALSE)," percibo un salario de ",Datos!F34," pesetas.")</f>
+        <v>Yo, Jose Enrique con DNI 19097407 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>19410867</v>
       </c>
@@ -1406,8 +1546,12 @@
       <c r="F35" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B35)," con DNI ",A35," y con el grupo profesional ",VLOOKUP(E35,grupos,2,FALSE)," percibo un salario de ",Datos!F35," pesetas.")</f>
+        <v>Yo, Pilar con DNI 19410867 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19460648</v>
       </c>
@@ -1426,8 +1570,12 @@
       <c r="F36" s="1">
         <v>93812</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B36)," con DNI ",A36," y con el grupo profesional ",VLOOKUP(E36,grupos,2,FALSE)," percibo un salario de ",Datos!F36," pesetas.")</f>
+        <v>Yo, M.Carmen con DNI 19460648 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>19815324</v>
       </c>
@@ -1446,8 +1594,12 @@
       <c r="F37" s="1">
         <v>119423</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B37)," con DNI ",A37," y con el grupo profesional ",VLOOKUP(E37,grupos,2,FALSE)," percibo un salario de ",Datos!F37," pesetas.")</f>
+        <v>Yo, Deamparados con DNI 19815324 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>19833502</v>
       </c>
@@ -1466,8 +1618,12 @@
       <c r="F38" s="1">
         <v>113341</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B38)," con DNI ",A38," y con el grupo profesional ",VLOOKUP(E38,grupos,2,FALSE)," percibo un salario de ",Datos!F38," pesetas.")</f>
+        <v>Yo, Alfonso con DNI 19833502 y con el grupo profesional Oficial percibo un salario de 113341 pesetas.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>19837391</v>
       </c>
@@ -1486,8 +1642,12 @@
       <c r="F39" s="1">
         <v>96755</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B39)," con DNI ",A39," y con el grupo profesional ",VLOOKUP(E39,grupos,2,FALSE)," percibo un salario de ",Datos!F39," pesetas.")</f>
+        <v>Yo, Maria Jose con DNI 19837391 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19837418</v>
       </c>
@@ -1506,8 +1666,12 @@
       <c r="F40" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B40)," con DNI ",A40," y con el grupo profesional ",VLOOKUP(E40,grupos,2,FALSE)," percibo un salario de ",Datos!F40," pesetas.")</f>
+        <v>Yo, Esther con DNI 19837418 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19839476</v>
       </c>
@@ -1526,8 +1690,12 @@
       <c r="F41" s="1">
         <v>157967</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B41)," con DNI ",A41," y con el grupo profesional ",VLOOKUP(E41,grupos,2,FALSE)," percibo un salario de ",Datos!F41," pesetas.")</f>
+        <v>Yo, Victoria con DNI 19839476 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19841207</v>
       </c>
@@ -1546,8 +1714,12 @@
       <c r="F42" s="1">
         <v>157967</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B42)," con DNI ",A42," y con el grupo profesional ",VLOOKUP(E42,grupos,2,FALSE)," percibo un salario de ",Datos!F42," pesetas.")</f>
+        <v>Yo, Maria Dolores con DNI 19841207 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>19842456</v>
       </c>
@@ -1566,8 +1738,12 @@
       <c r="F43" s="1">
         <v>157967</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B43)," con DNI ",A43," y con el grupo profesional ",VLOOKUP(E43,grupos,2,FALSE)," percibo un salario de ",Datos!F43," pesetas.")</f>
+        <v>Yo, Esperanza con DNI 19842456 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19844109</v>
       </c>
@@ -1586,8 +1762,12 @@
       <c r="F44" s="1">
         <v>157967</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B44)," con DNI ",A44," y con el grupo profesional ",VLOOKUP(E44,grupos,2,FALSE)," percibo un salario de ",Datos!F44," pesetas.")</f>
+        <v>Yo, Julio con DNI 19844109 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19844606</v>
       </c>
@@ -1606,8 +1786,12 @@
       <c r="F45" s="1">
         <v>157967</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B45)," con DNI ",A45," y con el grupo profesional ",VLOOKUP(E45,grupos,2,FALSE)," percibo un salario de ",Datos!F45," pesetas.")</f>
+        <v>Yo, Nieves con DNI 19844606 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19846733</v>
       </c>
@@ -1626,8 +1810,12 @@
       <c r="F46" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B46)," con DNI ",A46," y con el grupo profesional ",VLOOKUP(E46,grupos,2,FALSE)," percibo un salario de ",Datos!F46," pesetas.")</f>
+        <v>Yo, Ana Maria con DNI 19846733 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19861799</v>
       </c>
@@ -1646,8 +1834,12 @@
       <c r="F47" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B47)," con DNI ",A47," y con el grupo profesional ",VLOOKUP(E47,grupos,2,FALSE)," percibo un salario de ",Datos!F47," pesetas.")</f>
+        <v>Yo, Araceli con DNI 19861799 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19877444</v>
       </c>
@@ -1666,8 +1858,12 @@
       <c r="F48" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B48)," con DNI ",A48," y con el grupo profesional ",VLOOKUP(E48,grupos,2,FALSE)," percibo un salario de ",Datos!F48," pesetas.")</f>
+        <v>Yo, Fernando David con DNI 19877444 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19882534</v>
       </c>
@@ -1686,8 +1882,12 @@
       <c r="F49" s="1">
         <v>177712</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B49)," con DNI ",A49," y con el grupo profesional ",VLOOKUP(E49,grupos,2,FALSE)," percibo un salario de ",Datos!F49," pesetas.")</f>
+        <v>Yo, Francisco con DNI 19882534 y con el grupo profesional Titulado Superior percibo un salario de 177712 pesetas.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19884224</v>
       </c>
@@ -1706,8 +1906,12 @@
       <c r="F50" s="1">
         <v>99522</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B50)," con DNI ",A50," y con el grupo profesional ",VLOOKUP(E50,grupos,2,FALSE)," percibo un salario de ",Datos!F50," pesetas.")</f>
+        <v>Yo, Ana Maria con DNI 19884224 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>19890943</v>
       </c>
@@ -1726,8 +1930,12 @@
       <c r="F51" s="1">
         <v>96755</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B51)," con DNI ",A51," y con el grupo profesional ",VLOOKUP(E51,grupos,2,FALSE)," percibo un salario de ",Datos!F51," pesetas.")</f>
+        <v>Yo, Rufina con DNI 19890943 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>19891520</v>
       </c>
@@ -1746,8 +1954,12 @@
       <c r="F52" s="1">
         <v>96755</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B52)," con DNI ",A52," y con el grupo profesional ",VLOOKUP(E52,grupos,2,FALSE)," percibo un salario de ",Datos!F52," pesetas.")</f>
+        <v>Yo, Jose Vicente con DNI 19891520 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>19891521</v>
       </c>
@@ -1766,8 +1978,12 @@
       <c r="F53" s="1">
         <v>148294</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B53)," con DNI ",A53," y con el grupo profesional ",VLOOKUP(E53,grupos,2,FALSE)," percibo un salario de ",Datos!F53," pesetas.")</f>
+        <v>Yo, Maria Amparo con DNI 19891521 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>19896640</v>
       </c>
@@ -1786,8 +2002,12 @@
       <c r="F54" s="1">
         <v>138006</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B54)," con DNI ",A54," y con el grupo profesional ",VLOOKUP(E54,grupos,2,FALSE)," percibo un salario de ",Datos!F54," pesetas.")</f>
+        <v>Yo, Vicente Manuel con DNI 19896640 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19897108</v>
       </c>
@@ -1806,8 +2026,12 @@
       <c r="F55" s="1">
         <v>138006</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B55)," con DNI ",A55," y con el grupo profesional ",VLOOKUP(E55,grupos,2,FALSE)," percibo un salario de ",Datos!F55," pesetas.")</f>
+        <v>Yo, Maria Dolores con DNI 19897108 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>19900784</v>
       </c>
@@ -1826,8 +2050,12 @@
       <c r="F56" s="1">
         <v>138006</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B56)," con DNI ",A56," y con el grupo profesional ",VLOOKUP(E56,grupos,2,FALSE)," percibo un salario de ",Datos!F56," pesetas.")</f>
+        <v>Yo, Ana con DNI 19900784 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>19970423</v>
       </c>
@@ -1846,8 +2074,12 @@
       <c r="F57" s="1">
         <v>148294</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B57)," con DNI ",A57," y con el grupo profesional ",VLOOKUP(E57,grupos,2,FALSE)," percibo un salario de ",Datos!F57," pesetas.")</f>
+        <v>Yo, Jose Andres con DNI 19970423 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>19976338</v>
       </c>
@@ -1866,8 +2098,12 @@
       <c r="F58" s="1">
         <v>96755</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B58)," con DNI ",A58," y con el grupo profesional ",VLOOKUP(E58,grupos,2,FALSE)," percibo un salario de ",Datos!F58," pesetas.")</f>
+        <v>Yo, Maria con DNI 19976338 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>19990011</v>
       </c>
@@ -1885,6 +2121,10 @@
       </c>
       <c r="F59" s="1">
         <v>148294</v>
+      </c>
+      <c r="H59" t="str">
+        <f>CONCATENATE("Yo, ",PROPER(B59)," con DNI ",A59," y con el grupo profesional ",VLOOKUP(E59,grupos,2,FALSE)," percibo un salario de ",Datos!F59," pesetas.")</f>
+        <v>Yo, Maria Dolores con DNI 19990011 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
       </c>
     </row>
   </sheetData>

--- a/m1/unidad3/Practicas/20191030/concatenar.xlsx
+++ b/m1/unidad3/Practicas/20191030/concatenar.xlsx
@@ -701,7 +701,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,8 +755,8 @@
         <v>93812</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B2)," con DNI ",A2," y con el grupo profesional ",VLOOKUP(E2,grupos,2,FALSE)," percibo un salario de ",Datos!F2," pesetas.")</f>
-        <v>Yo, Maria Carmen con DNI 11949380 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B2),", con DNI ",A2," y con el grupo profesional ",VLOOKUP(E2,grupos,2,FALSE)," percibo un salario de ",Datos!F2," pesetas.")</f>
+        <v>Yo, Maria Carmen, con DNI 11949380 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -779,8 +779,8 @@
         <v>113341</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B3)," con DNI ",A3," y con el grupo profesional ",VLOOKUP(E3,grupos,2,FALSE)," percibo un salario de ",Datos!F3," pesetas.")</f>
-        <v>Yo, Isabel con DNI 13145230 y con el grupo profesional Oficial percibo un salario de 113341 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B3),", con DNI ",A3," y con el grupo profesional ",VLOOKUP(E3,grupos,2,FALSE)," percibo un salario de ",Datos!F3," pesetas.")</f>
+        <v>Yo, Isabel, con DNI 13145230 y con el grupo profesional Oficial percibo un salario de 113341 pesetas.</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,8 +803,8 @@
         <v>96755</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B4)," con DNI ",A4," y con el grupo profesional ",VLOOKUP(E4,grupos,2,FALSE)," percibo un salario de ",Datos!F4," pesetas.")</f>
-        <v>Yo, Alberto con DNI 16791859 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B4),", con DNI ",A4," y con el grupo profesional ",VLOOKUP(E4,grupos,2,FALSE)," percibo un salario de ",Datos!F4," pesetas.")</f>
+        <v>Yo, Alberto, con DNI 16791859 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -827,8 +827,8 @@
         <v>177712</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B5)," con DNI ",A5," y con el grupo profesional ",VLOOKUP(E5,grupos,2,FALSE)," percibo un salario de ",Datos!F5," pesetas.")</f>
-        <v>Yo, Francesc Marc con DNI 18877501 y con el grupo profesional Titulado Superior percibo un salario de 177712 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B5),", con DNI ",A5," y con el grupo profesional ",VLOOKUP(E5,grupos,2,FALSE)," percibo un salario de ",Datos!F5," pesetas.")</f>
+        <v>Yo, Francesc Marc, con DNI 18877501 y con el grupo profesional Titulado Superior percibo un salario de 177712 pesetas.</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,8 +851,8 @@
         <v>106568</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B6)," con DNI ",A6," y con el grupo profesional ",VLOOKUP(E6,grupos,2,FALSE)," percibo un salario de ",Datos!F6," pesetas.")</f>
-        <v>Yo, Maria Teresa con DNI 18889898 y con el grupo profesional Técnico percibo un salario de 106568 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B6),", con DNI ",A6," y con el grupo profesional ",VLOOKUP(E6,grupos,2,FALSE)," percibo un salario de ",Datos!F6," pesetas.")</f>
+        <v>Yo, Maria Teresa, con DNI 18889898 y con el grupo profesional Técnico percibo un salario de 106568 pesetas.</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -875,8 +875,8 @@
         <v>113341</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B7)," con DNI ",A7," y con el grupo profesional ",VLOOKUP(E7,grupos,2,FALSE)," percibo un salario de ",Datos!F7," pesetas.")</f>
-        <v>Yo, Dolores con DNI 18891170 y con el grupo profesional Oficial percibo un salario de 113341 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B7),", con DNI ",A7," y con el grupo profesional ",VLOOKUP(E7,grupos,2,FALSE)," percibo un salario de ",Datos!F7," pesetas.")</f>
+        <v>Yo, Dolores, con DNI 18891170 y con el grupo profesional Oficial percibo un salario de 113341 pesetas.</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,8 +899,8 @@
         <v>99522</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B8)," con DNI ",A8," y con el grupo profesional ",VLOOKUP(E8,grupos,2,FALSE)," percibo un salario de ",Datos!F8," pesetas.")</f>
-        <v>Yo, Pilar con DNI 18911363 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B8),", con DNI ",A8," y con el grupo profesional ",VLOOKUP(E8,grupos,2,FALSE)," percibo un salario de ",Datos!F8," pesetas.")</f>
+        <v>Yo, Pilar, con DNI 18911363 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,8 +923,8 @@
         <v>134199</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B9)," con DNI ",A9," y con el grupo profesional ",VLOOKUP(E9,grupos,2,FALSE)," percibo un salario de ",Datos!F9," pesetas.")</f>
-        <v>Yo, Victoria Eugenia con DNI 18920201 y con el grupo profesional Jefe de Sección percibo un salario de 134199 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B9),", con DNI ",A9," y con el grupo profesional ",VLOOKUP(E9,grupos,2,FALSE)," percibo un salario de ",Datos!F9," pesetas.")</f>
+        <v>Yo, Victoria Eugenia, con DNI 18920201 y con el grupo profesional Jefe de Sección percibo un salario de 134199 pesetas.</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -947,8 +947,8 @@
         <v>99522</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B10)," con DNI ",A10," y con el grupo profesional ",VLOOKUP(E10,grupos,2,FALSE)," percibo un salario de ",Datos!F10," pesetas.")</f>
-        <v>Yo, Carlos Rafael con DNI 18927181 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B10),", con DNI ",A10," y con el grupo profesional ",VLOOKUP(E10,grupos,2,FALSE)," percibo un salario de ",Datos!F10," pesetas.")</f>
+        <v>Yo, Carlos Rafael, con DNI 18927181 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -971,8 +971,8 @@
         <v>119423</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B11)," con DNI ",A11," y con el grupo profesional ",VLOOKUP(E11,grupos,2,FALSE)," percibo un salario de ",Datos!F11," pesetas.")</f>
-        <v>Yo, Vicent Joan con DNI 18935228 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B11),", con DNI ",A11," y con el grupo profesional ",VLOOKUP(E11,grupos,2,FALSE)," percibo un salario de ",Datos!F11," pesetas.")</f>
+        <v>Yo, Vicent Joan, con DNI 18935228 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,8 +995,8 @@
         <v>99522</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B12)," con DNI ",A12," y con el grupo profesional ",VLOOKUP(E12,grupos,2,FALSE)," percibo un salario de ",Datos!F12," pesetas.")</f>
-        <v>Yo, Tomas con DNI 18952168 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B12),", con DNI ",A12," y con el grupo profesional ",VLOOKUP(E12,grupos,2,FALSE)," percibo un salario de ",Datos!F12," pesetas.")</f>
+        <v>Yo, Tomas, con DNI 18952168 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1019,8 +1019,8 @@
         <v>119423</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B13)," con DNI ",A13," y con el grupo profesional ",VLOOKUP(E13,grupos,2,FALSE)," percibo un salario de ",Datos!F13," pesetas.")</f>
-        <v>Yo, Begoña con DNI 18953436 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B13),", con DNI ",A13," y con el grupo profesional ",VLOOKUP(E13,grupos,2,FALSE)," percibo un salario de ",Datos!F13," pesetas.")</f>
+        <v>Yo, Begoña, con DNI 18953436 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1043,8 +1043,8 @@
         <v>138006</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B14)," con DNI ",A14," y con el grupo profesional ",VLOOKUP(E14,grupos,2,FALSE)," percibo un salario de ",Datos!F14," pesetas.")</f>
-        <v>Yo, Angeles con DNI 18955034 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B14),", con DNI ",A14," y con el grupo profesional ",VLOOKUP(E14,grupos,2,FALSE)," percibo un salario de ",Datos!F14," pesetas.")</f>
+        <v>Yo, Angeles, con DNI 18955034 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1067,8 +1067,8 @@
         <v>138006</v>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B15)," con DNI ",A15," y con el grupo profesional ",VLOOKUP(E15,grupos,2,FALSE)," percibo un salario de ",Datos!F15," pesetas.")</f>
-        <v>Yo, Margarita con DNI 18957801 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B15),", con DNI ",A15," y con el grupo profesional ",VLOOKUP(E15,grupos,2,FALSE)," percibo un salario de ",Datos!F15," pesetas.")</f>
+        <v>Yo, Margarita, con DNI 18957801 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,8 +1091,8 @@
         <v>138006</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B16)," con DNI ",A16," y con el grupo profesional ",VLOOKUP(E16,grupos,2,FALSE)," percibo un salario de ",Datos!F16," pesetas.")</f>
-        <v>Yo, Juan Carlos con DNI 18960442 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B16),", con DNI ",A16," y con el grupo profesional ",VLOOKUP(E16,grupos,2,FALSE)," percibo un salario de ",Datos!F16," pesetas.")</f>
+        <v>Yo, Juan Carlos, con DNI 18960442 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,8 +1115,8 @@
         <v>119423</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B17)," con DNI ",A17," y con el grupo profesional ",VLOOKUP(E17,grupos,2,FALSE)," percibo un salario de ",Datos!F17," pesetas.")</f>
-        <v>Yo, Juan Carlos con DNI 18964705 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B17),", con DNI ",A17," y con el grupo profesional ",VLOOKUP(E17,grupos,2,FALSE)," percibo un salario de ",Datos!F17," pesetas.")</f>
+        <v>Yo, Juan Carlos, con DNI 18964705 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,8 +1139,8 @@
         <v>134199</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B18)," con DNI ",A18," y con el grupo profesional ",VLOOKUP(E18,grupos,2,FALSE)," percibo un salario de ",Datos!F18," pesetas.")</f>
-        <v>Yo, Maria Carmen con DNI 18965399 y con el grupo profesional Jefe de Sección percibo un salario de 134199 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B18),", con DNI ",A18," y con el grupo profesional ",VLOOKUP(E18,grupos,2,FALSE)," percibo un salario de ",Datos!F18," pesetas.")</f>
+        <v>Yo, Maria Carmen, con DNI 18965399 y con el grupo profesional Jefe de Sección percibo un salario de 134199 pesetas.</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1163,8 +1163,8 @@
         <v>119423</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B19)," con DNI ",A19," y con el grupo profesional ",VLOOKUP(E19,grupos,2,FALSE)," percibo un salario de ",Datos!F19," pesetas.")</f>
-        <v>Yo, Joaquin con DNI 18968771 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B19),", con DNI ",A19," y con el grupo profesional ",VLOOKUP(E19,grupos,2,FALSE)," percibo un salario de ",Datos!F19," pesetas.")</f>
+        <v>Yo, Joaquin, con DNI 18968771 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1187,8 +1187,8 @@
         <v>119423</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B20)," con DNI ",A20," y con el grupo profesional ",VLOOKUP(E20,grupos,2,FALSE)," percibo un salario de ",Datos!F20," pesetas.")</f>
-        <v>Yo, Alberto con DNI 18974688 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B20),", con DNI ",A20," y con el grupo profesional ",VLOOKUP(E20,grupos,2,FALSE)," percibo un salario de ",Datos!F20," pesetas.")</f>
+        <v>Yo, Alberto, con DNI 18974688 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1211,8 +1211,8 @@
         <v>99522</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B21)," con DNI ",A21," y con el grupo profesional ",VLOOKUP(E21,grupos,2,FALSE)," percibo un salario de ",Datos!F21," pesetas.")</f>
-        <v>Yo, Miguel Angel con DNI 18974843 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B21),", con DNI ",A21," y con el grupo profesional ",VLOOKUP(E21,grupos,2,FALSE)," percibo un salario de ",Datos!F21," pesetas.")</f>
+        <v>Yo, Miguel Angel, con DNI 18974843 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1235,8 +1235,8 @@
         <v>99522</v>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B22)," con DNI ",A22," y con el grupo profesional ",VLOOKUP(E22,grupos,2,FALSE)," percibo un salario de ",Datos!F22," pesetas.")</f>
-        <v>Yo, Pablo con DNI 18975385 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B22),", con DNI ",A22," y con el grupo profesional ",VLOOKUP(E22,grupos,2,FALSE)," percibo un salario de ",Datos!F22," pesetas.")</f>
+        <v>Yo, Pablo, con DNI 18975385 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1259,8 +1259,8 @@
         <v>99522</v>
       </c>
       <c r="H23" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B23)," con DNI ",A23," y con el grupo profesional ",VLOOKUP(E23,grupos,2,FALSE)," percibo un salario de ",Datos!F23," pesetas.")</f>
-        <v>Yo, Jesus con DNI 18981702 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B23),", con DNI ",A23," y con el grupo profesional ",VLOOKUP(E23,grupos,2,FALSE)," percibo un salario de ",Datos!F23," pesetas.")</f>
+        <v>Yo, Jesus, con DNI 18981702 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,8 +1283,8 @@
         <v>138006</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B24)," con DNI ",A24," y con el grupo profesional ",VLOOKUP(E24,grupos,2,FALSE)," percibo un salario de ",Datos!F24," pesetas.")</f>
-        <v>Yo, Luis Miguel con DNI 18983354 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B24),", con DNI ",A24," y con el grupo profesional ",VLOOKUP(E24,grupos,2,FALSE)," percibo un salario de ",Datos!F24," pesetas.")</f>
+        <v>Yo, Luis Miguel, con DNI 18983354 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1307,8 +1307,8 @@
         <v>106568</v>
       </c>
       <c r="H25" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B25)," con DNI ",A25," y con el grupo profesional ",VLOOKUP(E25,grupos,2,FALSE)," percibo un salario de ",Datos!F25," pesetas.")</f>
-        <v>Yo, David con DNI 18986541 y con el grupo profesional Técnico percibo un salario de 106568 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B25),", con DNI ",A25," y con el grupo profesional ",VLOOKUP(E25,grupos,2,FALSE)," percibo un salario de ",Datos!F25," pesetas.")</f>
+        <v>Yo, David, con DNI 18986541 y con el grupo profesional Técnico percibo un salario de 106568 pesetas.</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1331,8 +1331,8 @@
         <v>99522</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B26)," con DNI ",A26," y con el grupo profesional ",VLOOKUP(E26,grupos,2,FALSE)," percibo un salario de ",Datos!F26," pesetas.")</f>
-        <v>Yo, Gema con DNI 18988863 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B26),", con DNI ",A26," y con el grupo profesional ",VLOOKUP(E26,grupos,2,FALSE)," percibo un salario de ",Datos!F26," pesetas.")</f>
+        <v>Yo, Gema, con DNI 18988863 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,8 +1355,8 @@
         <v>148294</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B27)," con DNI ",A27," y con el grupo profesional ",VLOOKUP(E27,grupos,2,FALSE)," percibo un salario de ",Datos!F27," pesetas.")</f>
-        <v>Yo, Jorge con DNI 18989477 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B27),", con DNI ",A27," y con el grupo profesional ",VLOOKUP(E27,grupos,2,FALSE)," percibo un salario de ",Datos!F27," pesetas.")</f>
+        <v>Yo, Jorge, con DNI 18989477 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1379,8 +1379,8 @@
         <v>99522</v>
       </c>
       <c r="H28" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B28)," con DNI ",A28," y con el grupo profesional ",VLOOKUP(E28,grupos,2,FALSE)," percibo un salario de ",Datos!F28," pesetas.")</f>
-        <v>Yo, Jorge con DNI 18989550 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B28),", con DNI ",A28," y con el grupo profesional ",VLOOKUP(E28,grupos,2,FALSE)," percibo un salario de ",Datos!F28," pesetas.")</f>
+        <v>Yo, Jorge, con DNI 18989550 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,8 +1403,8 @@
         <v>106568</v>
       </c>
       <c r="H29" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B29)," con DNI ",A29," y con el grupo profesional ",VLOOKUP(E29,grupos,2,FALSE)," percibo un salario de ",Datos!F29," pesetas.")</f>
-        <v>Yo, Sebastian con DNI 19000111 y con el grupo profesional Técnico percibo un salario de 106568 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B29),", con DNI ",A29," y con el grupo profesional ",VLOOKUP(E29,grupos,2,FALSE)," percibo un salario de ",Datos!F29," pesetas.")</f>
+        <v>Yo, Sebastian, con DNI 19000111 y con el grupo profesional Técnico percibo un salario de 106568 pesetas.</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,8 +1427,8 @@
         <v>138006</v>
       </c>
       <c r="H30" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B30)," con DNI ",A30," y con el grupo profesional ",VLOOKUP(E30,grupos,2,FALSE)," percibo un salario de ",Datos!F30," pesetas.")</f>
-        <v>Yo, Alejandra con DNI 19008434 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B30),", con DNI ",A30," y con el grupo profesional ",VLOOKUP(E30,grupos,2,FALSE)," percibo un salario de ",Datos!F30," pesetas.")</f>
+        <v>Yo, Alejandra, con DNI 19008434 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,8 +1451,8 @@
         <v>93812</v>
       </c>
       <c r="H31" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B31)," con DNI ",A31," y con el grupo profesional ",VLOOKUP(E31,grupos,2,FALSE)," percibo un salario de ",Datos!F31," pesetas.")</f>
-        <v>Yo, Julia con DNI 19011755 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B31),", con DNI ",A31," y con el grupo profesional ",VLOOKUP(E31,grupos,2,FALSE)," percibo un salario de ",Datos!F31," pesetas.")</f>
+        <v>Yo, Julia, con DNI 19011755 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,8 +1475,8 @@
         <v>157967</v>
       </c>
       <c r="H32" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B32)," con DNI ",A32," y con el grupo profesional ",VLOOKUP(E32,grupos,2,FALSE)," percibo un salario de ",Datos!F32," pesetas.")</f>
-        <v>Yo, Oscar con DNI 19012844 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B32),", con DNI ",A32," y con el grupo profesional ",VLOOKUP(E32,grupos,2,FALSE)," percibo un salario de ",Datos!F32," pesetas.")</f>
+        <v>Yo, Oscar, con DNI 19012844 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1499,8 +1499,8 @@
         <v>99522</v>
       </c>
       <c r="H33" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B33)," con DNI ",A33," y con el grupo profesional ",VLOOKUP(E33,grupos,2,FALSE)," percibo un salario de ",Datos!F33," pesetas.")</f>
-        <v>Yo, Elias con DNI 19082333 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B33),", con DNI ",A33," y con el grupo profesional ",VLOOKUP(E33,grupos,2,FALSE)," percibo un salario de ",Datos!F33," pesetas.")</f>
+        <v>Yo, Elias, con DNI 19082333 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1523,8 +1523,8 @@
         <v>93812</v>
       </c>
       <c r="H34" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B34)," con DNI ",A34," y con el grupo profesional ",VLOOKUP(E34,grupos,2,FALSE)," percibo un salario de ",Datos!F34," pesetas.")</f>
-        <v>Yo, Jose Enrique con DNI 19097407 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B34),", con DNI ",A34," y con el grupo profesional ",VLOOKUP(E34,grupos,2,FALSE)," percibo un salario de ",Datos!F34," pesetas.")</f>
+        <v>Yo, Jose Enrique, con DNI 19097407 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,8 +1547,8 @@
         <v>99522</v>
       </c>
       <c r="H35" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B35)," con DNI ",A35," y con el grupo profesional ",VLOOKUP(E35,grupos,2,FALSE)," percibo un salario de ",Datos!F35," pesetas.")</f>
-        <v>Yo, Pilar con DNI 19410867 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B35),", con DNI ",A35," y con el grupo profesional ",VLOOKUP(E35,grupos,2,FALSE)," percibo un salario de ",Datos!F35," pesetas.")</f>
+        <v>Yo, Pilar, con DNI 19410867 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1571,8 +1571,8 @@
         <v>93812</v>
       </c>
       <c r="H36" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B36)," con DNI ",A36," y con el grupo profesional ",VLOOKUP(E36,grupos,2,FALSE)," percibo un salario de ",Datos!F36," pesetas.")</f>
-        <v>Yo, M.Carmen con DNI 19460648 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B36),", con DNI ",A36," y con el grupo profesional ",VLOOKUP(E36,grupos,2,FALSE)," percibo un salario de ",Datos!F36," pesetas.")</f>
+        <v>Yo, M.Carmen, con DNI 19460648 y con el grupo profesional Auxiliar percibo un salario de 93812 pesetas.</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1595,8 +1595,8 @@
         <v>119423</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B37)," con DNI ",A37," y con el grupo profesional ",VLOOKUP(E37,grupos,2,FALSE)," percibo un salario de ",Datos!F37," pesetas.")</f>
-        <v>Yo, Deamparados con DNI 19815324 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B37),", con DNI ",A37," y con el grupo profesional ",VLOOKUP(E37,grupos,2,FALSE)," percibo un salario de ",Datos!F37," pesetas.")</f>
+        <v>Yo, Deamparados, con DNI 19815324 y con el grupo profesional Oficial percibo un salario de 119423 pesetas.</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1619,8 +1619,8 @@
         <v>113341</v>
       </c>
       <c r="H38" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B38)," con DNI ",A38," y con el grupo profesional ",VLOOKUP(E38,grupos,2,FALSE)," percibo un salario de ",Datos!F38," pesetas.")</f>
-        <v>Yo, Alfonso con DNI 19833502 y con el grupo profesional Oficial percibo un salario de 113341 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B38),", con DNI ",A38," y con el grupo profesional ",VLOOKUP(E38,grupos,2,FALSE)," percibo un salario de ",Datos!F38," pesetas.")</f>
+        <v>Yo, Alfonso, con DNI 19833502 y con el grupo profesional Oficial percibo un salario de 113341 pesetas.</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1643,8 +1643,8 @@
         <v>96755</v>
       </c>
       <c r="H39" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B39)," con DNI ",A39," y con el grupo profesional ",VLOOKUP(E39,grupos,2,FALSE)," percibo un salario de ",Datos!F39," pesetas.")</f>
-        <v>Yo, Maria Jose con DNI 19837391 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B39),", con DNI ",A39," y con el grupo profesional ",VLOOKUP(E39,grupos,2,FALSE)," percibo un salario de ",Datos!F39," pesetas.")</f>
+        <v>Yo, Maria Jose, con DNI 19837391 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,8 +1667,8 @@
         <v>99522</v>
       </c>
       <c r="H40" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B40)," con DNI ",A40," y con el grupo profesional ",VLOOKUP(E40,grupos,2,FALSE)," percibo un salario de ",Datos!F40," pesetas.")</f>
-        <v>Yo, Esther con DNI 19837418 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B40),", con DNI ",A40," y con el grupo profesional ",VLOOKUP(E40,grupos,2,FALSE)," percibo un salario de ",Datos!F40," pesetas.")</f>
+        <v>Yo, Esther, con DNI 19837418 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1691,8 +1691,8 @@
         <v>157967</v>
       </c>
       <c r="H41" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B41)," con DNI ",A41," y con el grupo profesional ",VLOOKUP(E41,grupos,2,FALSE)," percibo un salario de ",Datos!F41," pesetas.")</f>
-        <v>Yo, Victoria con DNI 19839476 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B41),", con DNI ",A41," y con el grupo profesional ",VLOOKUP(E41,grupos,2,FALSE)," percibo un salario de ",Datos!F41," pesetas.")</f>
+        <v>Yo, Victoria, con DNI 19839476 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1715,8 +1715,8 @@
         <v>157967</v>
       </c>
       <c r="H42" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B42)," con DNI ",A42," y con el grupo profesional ",VLOOKUP(E42,grupos,2,FALSE)," percibo un salario de ",Datos!F42," pesetas.")</f>
-        <v>Yo, Maria Dolores con DNI 19841207 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B42),", con DNI ",A42," y con el grupo profesional ",VLOOKUP(E42,grupos,2,FALSE)," percibo un salario de ",Datos!F42," pesetas.")</f>
+        <v>Yo, Maria Dolores, con DNI 19841207 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1739,8 +1739,8 @@
         <v>157967</v>
       </c>
       <c r="H43" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B43)," con DNI ",A43," y con el grupo profesional ",VLOOKUP(E43,grupos,2,FALSE)," percibo un salario de ",Datos!F43," pesetas.")</f>
-        <v>Yo, Esperanza con DNI 19842456 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B43),", con DNI ",A43," y con el grupo profesional ",VLOOKUP(E43,grupos,2,FALSE)," percibo un salario de ",Datos!F43," pesetas.")</f>
+        <v>Yo, Esperanza, con DNI 19842456 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1763,8 +1763,8 @@
         <v>157967</v>
       </c>
       <c r="H44" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B44)," con DNI ",A44," y con el grupo profesional ",VLOOKUP(E44,grupos,2,FALSE)," percibo un salario de ",Datos!F44," pesetas.")</f>
-        <v>Yo, Julio con DNI 19844109 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B44),", con DNI ",A44," y con el grupo profesional ",VLOOKUP(E44,grupos,2,FALSE)," percibo un salario de ",Datos!F44," pesetas.")</f>
+        <v>Yo, Julio, con DNI 19844109 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,8 +1787,8 @@
         <v>157967</v>
       </c>
       <c r="H45" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B45)," con DNI ",A45," y con el grupo profesional ",VLOOKUP(E45,grupos,2,FALSE)," percibo un salario de ",Datos!F45," pesetas.")</f>
-        <v>Yo, Nieves con DNI 19844606 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B45),", con DNI ",A45," y con el grupo profesional ",VLOOKUP(E45,grupos,2,FALSE)," percibo un salario de ",Datos!F45," pesetas.")</f>
+        <v>Yo, Nieves, con DNI 19844606 y con el grupo profesional Titulado Medio percibo un salario de 157967 pesetas.</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,8 +1811,8 @@
         <v>99522</v>
       </c>
       <c r="H46" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B46)," con DNI ",A46," y con el grupo profesional ",VLOOKUP(E46,grupos,2,FALSE)," percibo un salario de ",Datos!F46," pesetas.")</f>
-        <v>Yo, Ana Maria con DNI 19846733 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B46),", con DNI ",A46," y con el grupo profesional ",VLOOKUP(E46,grupos,2,FALSE)," percibo un salario de ",Datos!F46," pesetas.")</f>
+        <v>Yo, Ana Maria, con DNI 19846733 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1835,8 +1835,8 @@
         <v>99522</v>
       </c>
       <c r="H47" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B47)," con DNI ",A47," y con el grupo profesional ",VLOOKUP(E47,grupos,2,FALSE)," percibo un salario de ",Datos!F47," pesetas.")</f>
-        <v>Yo, Araceli con DNI 19861799 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B47),", con DNI ",A47," y con el grupo profesional ",VLOOKUP(E47,grupos,2,FALSE)," percibo un salario de ",Datos!F47," pesetas.")</f>
+        <v>Yo, Araceli, con DNI 19861799 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1859,8 +1859,8 @@
         <v>99522</v>
       </c>
       <c r="H48" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B48)," con DNI ",A48," y con el grupo profesional ",VLOOKUP(E48,grupos,2,FALSE)," percibo un salario de ",Datos!F48," pesetas.")</f>
-        <v>Yo, Fernando David con DNI 19877444 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B48),", con DNI ",A48," y con el grupo profesional ",VLOOKUP(E48,grupos,2,FALSE)," percibo un salario de ",Datos!F48," pesetas.")</f>
+        <v>Yo, Fernando David, con DNI 19877444 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1883,8 +1883,8 @@
         <v>177712</v>
       </c>
       <c r="H49" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B49)," con DNI ",A49," y con el grupo profesional ",VLOOKUP(E49,grupos,2,FALSE)," percibo un salario de ",Datos!F49," pesetas.")</f>
-        <v>Yo, Francisco con DNI 19882534 y con el grupo profesional Titulado Superior percibo un salario de 177712 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B49),", con DNI ",A49," y con el grupo profesional ",VLOOKUP(E49,grupos,2,FALSE)," percibo un salario de ",Datos!F49," pesetas.")</f>
+        <v>Yo, Francisco, con DNI 19882534 y con el grupo profesional Titulado Superior percibo un salario de 177712 pesetas.</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1907,8 +1907,8 @@
         <v>99522</v>
       </c>
       <c r="H50" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B50)," con DNI ",A50," y con el grupo profesional ",VLOOKUP(E50,grupos,2,FALSE)," percibo un salario de ",Datos!F50," pesetas.")</f>
-        <v>Yo, Ana Maria con DNI 19884224 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B50),", con DNI ",A50," y con el grupo profesional ",VLOOKUP(E50,grupos,2,FALSE)," percibo un salario de ",Datos!F50," pesetas.")</f>
+        <v>Yo, Ana Maria, con DNI 19884224 y con el grupo profesional Técnico percibo un salario de 99522 pesetas.</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1931,8 +1931,8 @@
         <v>96755</v>
       </c>
       <c r="H51" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B51)," con DNI ",A51," y con el grupo profesional ",VLOOKUP(E51,grupos,2,FALSE)," percibo un salario de ",Datos!F51," pesetas.")</f>
-        <v>Yo, Rufina con DNI 19890943 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B51),", con DNI ",A51," y con el grupo profesional ",VLOOKUP(E51,grupos,2,FALSE)," percibo un salario de ",Datos!F51," pesetas.")</f>
+        <v>Yo, Rufina, con DNI 19890943 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1955,8 +1955,8 @@
         <v>96755</v>
       </c>
       <c r="H52" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B52)," con DNI ",A52," y con el grupo profesional ",VLOOKUP(E52,grupos,2,FALSE)," percibo un salario de ",Datos!F52," pesetas.")</f>
-        <v>Yo, Jose Vicente con DNI 19891520 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B52),", con DNI ",A52," y con el grupo profesional ",VLOOKUP(E52,grupos,2,FALSE)," percibo un salario de ",Datos!F52," pesetas.")</f>
+        <v>Yo, Jose Vicente, con DNI 19891520 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1979,8 +1979,8 @@
         <v>148294</v>
       </c>
       <c r="H53" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B53)," con DNI ",A53," y con el grupo profesional ",VLOOKUP(E53,grupos,2,FALSE)," percibo un salario de ",Datos!F53," pesetas.")</f>
-        <v>Yo, Maria Amparo con DNI 19891521 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B53),", con DNI ",A53," y con el grupo profesional ",VLOOKUP(E53,grupos,2,FALSE)," percibo un salario de ",Datos!F53," pesetas.")</f>
+        <v>Yo, Maria Amparo, con DNI 19891521 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2003,8 +2003,8 @@
         <v>138006</v>
       </c>
       <c r="H54" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B54)," con DNI ",A54," y con el grupo profesional ",VLOOKUP(E54,grupos,2,FALSE)," percibo un salario de ",Datos!F54," pesetas.")</f>
-        <v>Yo, Vicente Manuel con DNI 19896640 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B54),", con DNI ",A54," y con el grupo profesional ",VLOOKUP(E54,grupos,2,FALSE)," percibo un salario de ",Datos!F54," pesetas.")</f>
+        <v>Yo, Vicente Manuel, con DNI 19896640 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2027,8 +2027,8 @@
         <v>138006</v>
       </c>
       <c r="H55" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B55)," con DNI ",A55," y con el grupo profesional ",VLOOKUP(E55,grupos,2,FALSE)," percibo un salario de ",Datos!F55," pesetas.")</f>
-        <v>Yo, Maria Dolores con DNI 19897108 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B55),", con DNI ",A55," y con el grupo profesional ",VLOOKUP(E55,grupos,2,FALSE)," percibo un salario de ",Datos!F55," pesetas.")</f>
+        <v>Yo, Maria Dolores, con DNI 19897108 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2051,8 +2051,8 @@
         <v>138006</v>
       </c>
       <c r="H56" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B56)," con DNI ",A56," y con el grupo profesional ",VLOOKUP(E56,grupos,2,FALSE)," percibo un salario de ",Datos!F56," pesetas.")</f>
-        <v>Yo, Ana con DNI 19900784 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B56),", con DNI ",A56," y con el grupo profesional ",VLOOKUP(E56,grupos,2,FALSE)," percibo un salario de ",Datos!F56," pesetas.")</f>
+        <v>Yo, Ana, con DNI 19900784 y con el grupo profesional Jefe de Sección percibo un salario de 138006 pesetas.</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2075,8 +2075,8 @@
         <v>148294</v>
       </c>
       <c r="H57" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B57)," con DNI ",A57," y con el grupo profesional ",VLOOKUP(E57,grupos,2,FALSE)," percibo un salario de ",Datos!F57," pesetas.")</f>
-        <v>Yo, Jose Andres con DNI 19970423 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B57),", con DNI ",A57," y con el grupo profesional ",VLOOKUP(E57,grupos,2,FALSE)," percibo un salario de ",Datos!F57," pesetas.")</f>
+        <v>Yo, Jose Andres, con DNI 19970423 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2099,8 +2099,8 @@
         <v>96755</v>
       </c>
       <c r="H58" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B58)," con DNI ",A58," y con el grupo profesional ",VLOOKUP(E58,grupos,2,FALSE)," percibo un salario de ",Datos!F58," pesetas.")</f>
-        <v>Yo, Maria con DNI 19976338 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B58),", con DNI ",A58," y con el grupo profesional ",VLOOKUP(E58,grupos,2,FALSE)," percibo un salario de ",Datos!F58," pesetas.")</f>
+        <v>Yo, Maria, con DNI 19976338 y con el grupo profesional Auxiliar percibo un salario de 96755 pesetas.</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2123,8 +2123,8 @@
         <v>148294</v>
       </c>
       <c r="H59" t="str">
-        <f>CONCATENATE("Yo, ",PROPER(B59)," con DNI ",A59," y con el grupo profesional ",VLOOKUP(E59,grupos,2,FALSE)," percibo un salario de ",Datos!F59," pesetas.")</f>
-        <v>Yo, Maria Dolores con DNI 19990011 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
+        <f>CONCATENATE("Yo, ",PROPER(B59),", con DNI ",A59," y con el grupo profesional ",VLOOKUP(E59,grupos,2,FALSE)," percibo un salario de ",Datos!F59," pesetas.")</f>
+        <v>Yo, Maria Dolores, con DNI 19990011 y con el grupo profesional Jefe de Sección percibo un salario de 148294 pesetas.</v>
       </c>
     </row>
   </sheetData>
